--- a/data/trans_orig/IP07C02-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07C02-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E8130F8-1E41-477C-8792-DD5C96CE63A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDCBCC1E-91D5-4788-8C15-0F40874EF45E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{683DF521-C9D9-419C-A7C1-DD444D2B831F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3797FA34-6188-4FCD-9640-BD8B3196EA88}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="453">
   <si>
     <t>Menores según frecuencia de haber podido correr bien en 2007 (Tasa respuesta: 42,63%)</t>
   </si>
@@ -76,1312 +76,1327 @@
     <t>55,47%</t>
   </si>
   <si>
+    <t>43,05%</t>
+  </si>
+  <si>
+    <t>67,58%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>66,43%</t>
+  </si>
+  <si>
+    <t>54,96%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>63,63%</t>
+  </si>
+  <si>
+    <t>Mucho</t>
+  </si>
+  <si>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>55,43%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>48,9%</t>
+  </si>
+  <si>
+    <t>Moderadamente</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>Poco</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>Nada</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>50,33%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>60,06%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
+  </si>
+  <si>
+    <t>51,52%</t>
+  </si>
+  <si>
+    <t>59,48%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>46,38%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>58,17%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
+  </si>
+  <si>
+    <t>68,96%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>58,8%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>60,3%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>52,35%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>49,5%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>56,58%</t>
+  </si>
+  <si>
+    <t>52,41%</t>
+  </si>
+  <si>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
     <t>43,32%</t>
   </si>
   <si>
-    <t>66,91%</t>
-  </si>
-  <si>
-    <t>54,49%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>67,11%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
-  </si>
-  <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>63,64%</t>
-  </si>
-  <si>
-    <t>Mucho</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>49,85%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>49,61%</t>
-  </si>
-  <si>
-    <t>Moderadamente</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>Poco</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>Nada</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>56,45%</t>
-  </si>
-  <si>
-    <t>50,87%</t>
-  </si>
-  <si>
-    <t>61,57%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>60,64%</t>
-  </si>
-  <si>
-    <t>55,46%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>59,88%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haber podido correr bien en 2012 (Tasa respuesta: 43,69%)</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>46,02%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>49,03%</t>
+  </si>
+  <si>
+    <t>46,6%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>58,93%</t>
+  </si>
+  <si>
+    <t>56,49%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>67,47%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>60,36%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>59,12%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>42,48%</t>
+  </si>
+  <si>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>49,24%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>55,05%</t>
+  </si>
+  <si>
+    <t>49,05%</t>
+  </si>
+  <si>
+    <t>60,38%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>56,24%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>50,01%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>56,89%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>63,61%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>56,33%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>55,57%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>47,44%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>54,78%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>48,47%</t>
+  </si>
+  <si>
+    <t>45,25%</t>
+  </si>
+  <si>
+    <t>51,96%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haber podido correr bien en 2016 (Tasa respuesta: 45,72%)</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>61,71%</t>
+  </si>
+  <si>
+    <t>54,66%</t>
+  </si>
+  <si>
+    <t>39,26%</t>
+  </si>
+  <si>
+    <t>67,97%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>60,39%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>51,46%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>60,92%</t>
+  </si>
+  <si>
+    <t>55,64%</t>
+  </si>
+  <si>
+    <t>66,21%</t>
+  </si>
+  <si>
+    <t>62,63%</t>
+  </si>
+  <si>
+    <t>57,4%</t>
+  </si>
+  <si>
+    <t>67,59%</t>
+  </si>
+  <si>
+    <t>61,78%</t>
+  </si>
+  <si>
+    <t>58,28%</t>
+  </si>
+  <si>
+    <t>65,75%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>70,3%</t>
+  </si>
+  <si>
+    <t>60,69%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
+  </si>
+  <si>
+    <t>61,32%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>71,02%</t>
+  </si>
+  <si>
+    <t>65,95%</t>
+  </si>
+  <si>
+    <t>59,46%</t>
+  </si>
+  <si>
+    <t>72,6%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>56,76%</t>
+  </si>
+  <si>
+    <t>65,82%</t>
+  </si>
+  <si>
+    <t>61,65%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>61,56%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>64,33%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
   </si>
   <si>
     <t>1,95%</t>
   </si>
   <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
+    <t>0,59%</t>
   </si>
   <si>
     <t>0,17%</t>
   </si>
   <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>69,12%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>57,96%</t>
-  </si>
-  <si>
-    <t>52,33%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>60,78%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>50,48%</t>
-  </si>
-  <si>
-    <t>43,47%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>53,77%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>49,49%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>56,58%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>60,95%</t>
-  </si>
-  <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>57,61%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>58,27%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haber podido correr bien en 2012 (Tasa respuesta: 43,69%)</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>59,25%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>48,56%</t>
-  </si>
-  <si>
-    <t>46,6%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>58,66%</t>
-  </si>
-  <si>
-    <t>56,49%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>66,97%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>43,75%</t>
-  </si>
-  <si>
-    <t>61,02%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>53,37%</t>
-  </si>
-  <si>
-    <t>47,84%</t>
-  </si>
-  <si>
-    <t>58,79%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>45,49%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>49,79%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
-  </si>
-  <si>
-    <t>48,06%</t>
-  </si>
-  <si>
-    <t>60,94%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
-  </si>
-  <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>56,22%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>50,59%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>49,92%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>63,2%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>56,41%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>51,23%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>55,65%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>41,27%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>54,78%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>59,11%</t>
-  </si>
-  <si>
-    <t>48,47%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haber podido correr bien en 2015 (Tasa respuesta: 45,72%)</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>54,66%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>69,73%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>58,15%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>50,7%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>60,92%</t>
-  </si>
-  <si>
-    <t>55,52%</t>
-  </si>
-  <si>
-    <t>66,16%</t>
-  </si>
-  <si>
-    <t>62,63%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>67,76%</t>
-  </si>
-  <si>
-    <t>61,78%</t>
-  </si>
-  <si>
-    <t>57,81%</t>
-  </si>
-  <si>
-    <t>65,38%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>70,3%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
-  </si>
-  <si>
-    <t>78,37%</t>
-  </si>
-  <si>
-    <t>61,32%</t>
-  </si>
-  <si>
-    <t>51,65%</t>
-  </si>
-  <si>
-    <t>70,93%</t>
-  </si>
-  <si>
-    <t>65,95%</t>
-  </si>
-  <si>
-    <t>59,09%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>45,25%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>57,3%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>61,65%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>61,56%</t>
-  </si>
-  <si>
-    <t>58,44%</t>
-  </si>
-  <si>
-    <t>64,79%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
   </si>
 </sst>
 </file>
@@ -1793,7 +1808,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90074D9C-03BC-4FF3-9B9F-8ECB8366A086}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7500857-7615-41CE-BD27-462BA753AEA1}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2243,10 +2258,10 @@
         <v>55</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="M10" s="7">
         <v>341</v>
@@ -2255,13 +2270,13 @@
         <v>225829</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2276,13 +2291,13 @@
         <v>82648</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H11" s="7">
         <v>116</v>
@@ -2291,13 +2306,13 @@
         <v>77589</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M11" s="7">
         <v>239</v>
@@ -2306,13 +2321,13 @@
         <v>160236</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2327,13 +2342,13 @@
         <v>5895</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H12" s="7">
         <v>10</v>
@@ -2342,13 +2357,13 @@
         <v>6733</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>19</v>
@@ -2357,13 +2372,13 @@
         <v>12627</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2378,13 +2393,13 @@
         <v>3315</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -2393,13 +2408,13 @@
         <v>2627</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -2408,13 +2423,13 @@
         <v>5942</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2429,13 +2444,13 @@
         <v>2582</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>89</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2450,7 +2465,7 @@
         <v>41</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -2459,13 +2474,13 @@
         <v>2582</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2521,7 +2536,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2533,13 +2548,13 @@
         <v>28527</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H16" s="7">
         <v>37</v>
@@ -2548,13 +2563,13 @@
         <v>25521</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M16" s="7">
         <v>80</v>
@@ -2563,13 +2578,13 @@
         <v>54048</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2584,13 +2599,13 @@
         <v>19192</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H17" s="7">
         <v>34</v>
@@ -2599,13 +2614,13 @@
         <v>23581</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M17" s="7">
         <v>62</v>
@@ -2614,13 +2629,13 @@
         <v>42774</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2635,13 +2650,13 @@
         <v>1321</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H18" s="7">
         <v>6</v>
@@ -2650,13 +2665,13 @@
         <v>4418</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M18" s="7">
         <v>8</v>
@@ -2665,13 +2680,13 @@
         <v>5739</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2692,7 +2707,7 @@
         <v>41</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -2701,7 +2716,7 @@
         <v>726</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>35</v>
+        <v>121</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>32</v>
@@ -2722,7 +2737,7 @@
         <v>32</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2743,7 +2758,7 @@
         <v>41</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2758,7 +2773,7 @@
         <v>41</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2773,7 +2788,7 @@
         <v>41</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2841,13 +2856,13 @@
         <v>174895</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>229</v>
@@ -2856,13 +2871,13 @@
         <v>154030</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>495</v>
@@ -2871,13 +2886,13 @@
         <v>328925</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2892,13 +2907,13 @@
         <v>120408</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>177</v>
@@ -2907,13 +2922,13 @@
         <v>118906</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>355</v>
@@ -2922,13 +2937,13 @@
         <v>239314</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2943,13 +2958,13 @@
         <v>7895</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H24" s="7">
         <v>19</v>
@@ -2958,13 +2973,13 @@
         <v>13083</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>149</v>
+        <v>112</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M24" s="7">
         <v>31</v>
@@ -2973,13 +2988,13 @@
         <v>20978</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2994,13 +3009,13 @@
         <v>3315</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>83</v>
+        <v>152</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H25" s="7">
         <v>7</v>
@@ -3009,13 +3024,13 @@
         <v>4627</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M25" s="7">
         <v>12</v>
@@ -3024,13 +3039,13 @@
         <v>7942</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3045,13 +3060,13 @@
         <v>2582</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -3066,7 +3081,7 @@
         <v>41</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
@@ -3075,13 +3090,13 @@
         <v>2582</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3137,7 +3152,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -3156,7 +3171,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{843BDB56-764F-4676-A009-7D5C154127C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE9DD97B-D5DC-499C-98D0-DDFA4F87D029}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3173,7 +3188,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3280,13 +3295,13 @@
         <v>21455</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H4" s="7">
         <v>25</v>
@@ -3295,13 +3310,13 @@
         <v>17664</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M4" s="7">
         <v>56</v>
@@ -3310,13 +3325,13 @@
         <v>39119</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3331,13 +3346,13 @@
         <v>21046</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H5" s="7">
         <v>42</v>
@@ -3346,13 +3361,13 @@
         <v>29161</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M5" s="7">
         <v>71</v>
@@ -3361,13 +3376,13 @@
         <v>50207</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3382,13 +3397,13 @@
         <v>1231</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H6" s="7">
         <v>5</v>
@@ -3397,13 +3412,13 @@
         <v>4145</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M6" s="7">
         <v>7</v>
@@ -3412,13 +3427,13 @@
         <v>5375</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3433,13 +3448,13 @@
         <v>607</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>35</v>
+        <v>121</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3454,7 +3469,7 @@
         <v>41</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -3463,13 +3478,13 @@
         <v>607</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3484,13 +3499,13 @@
         <v>823</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -3499,13 +3514,13 @@
         <v>656</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -3514,13 +3529,13 @@
         <v>1479</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3588,13 +3603,13 @@
         <v>120314</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="H10" s="7">
         <v>105</v>
@@ -3603,13 +3618,13 @@
         <v>72804</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="M10" s="7">
         <v>280</v>
@@ -3618,13 +3633,13 @@
         <v>193119</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3639,13 +3654,13 @@
         <v>92148</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="H11" s="7">
         <v>156</v>
@@ -3654,13 +3669,13 @@
         <v>109568</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="M11" s="7">
         <v>290</v>
@@ -3669,13 +3684,13 @@
         <v>201716</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3690,13 +3705,13 @@
         <v>8346</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="H12" s="7">
         <v>20</v>
@@ -3705,13 +3720,13 @@
         <v>14318</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="K12" s="7" t="s">
-        <v>223</v>
-      </c>
       <c r="L12" s="7" t="s">
-        <v>224</v>
+        <v>193</v>
       </c>
       <c r="M12" s="7">
         <v>33</v>
@@ -3720,13 +3735,13 @@
         <v>22664</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3741,13 +3756,13 @@
         <v>2697</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -3756,13 +3771,13 @@
         <v>1926</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>89</v>
+        <v>230</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>232</v>
+        <v>120</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -3771,13 +3786,13 @@
         <v>4623</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3792,13 +3807,13 @@
         <v>1947</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>238</v>
+        <v>86</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -3807,13 +3822,13 @@
         <v>430</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>239</v>
+        <v>161</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -3822,13 +3837,13 @@
         <v>2377</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3884,7 +3899,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3896,13 +3911,13 @@
         <v>25643</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H16" s="7">
         <v>34</v>
@@ -3911,13 +3926,13 @@
         <v>23722</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="M16" s="7">
         <v>73</v>
@@ -3926,13 +3941,13 @@
         <v>49365</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3947,13 +3962,13 @@
         <v>25541</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H17" s="7">
         <v>43</v>
@@ -3962,13 +3977,13 @@
         <v>31537</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="M17" s="7">
         <v>79</v>
@@ -3977,13 +3992,13 @@
         <v>57078</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>139</v>
+        <v>255</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3998,13 +4013,13 @@
         <v>2740</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H18" s="7">
         <v>4</v>
@@ -4016,10 +4031,10 @@
         <v>260</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>199</v>
+        <v>261</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M18" s="7">
         <v>8</v>
@@ -4028,13 +4043,13 @@
         <v>5697</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4049,13 +4064,13 @@
         <v>1506</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>87</v>
+        <v>266</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -4064,13 +4079,13 @@
         <v>1316</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>238</v>
+        <v>268</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -4079,13 +4094,13 @@
         <v>2821</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4100,13 +4115,13 @@
         <v>722</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>146</v>
+        <v>272</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -4115,13 +4130,13 @@
         <v>594</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -4130,13 +4145,13 @@
         <v>1316</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4204,13 +4219,13 @@
         <v>167413</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H22" s="7">
         <v>164</v>
@@ -4219,13 +4234,13 @@
         <v>114190</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="M22" s="7">
         <v>409</v>
@@ -4234,13 +4249,13 @@
         <v>281602</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4255,13 +4270,13 @@
         <v>138735</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="H23" s="7">
         <v>241</v>
@@ -4270,13 +4285,13 @@
         <v>170266</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="M23" s="7">
         <v>440</v>
@@ -4285,13 +4300,13 @@
         <v>309001</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4306,13 +4321,13 @@
         <v>12316</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="H24" s="7">
         <v>29</v>
@@ -4321,13 +4336,13 @@
         <v>21420</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="M24" s="7">
         <v>48</v>
@@ -4336,13 +4351,13 @@
         <v>33736</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4357,13 +4372,13 @@
         <v>4810</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>301</v>
+        <v>70</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -4372,13 +4387,13 @@
         <v>3241</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>83</v>
+        <v>308</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="M25" s="7">
         <v>12</v>
@@ -4387,13 +4402,13 @@
         <v>8051</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>306</v>
+        <v>90</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>238</v>
+        <v>310</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4408,13 +4423,13 @@
         <v>3492</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -4423,13 +4438,13 @@
         <v>1680</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>241</v>
+        <v>313</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>301</v>
+        <v>84</v>
       </c>
       <c r="M26" s="7">
         <v>8</v>
@@ -4438,13 +4453,13 @@
         <v>5172</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4500,7 +4515,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -4519,7 +4534,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70DD357A-5C8F-4E08-BBD1-CFCF8E3FFA5A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9CCB1B6-6640-47A0-9D29-9BECEE13C0FE}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4536,7 +4551,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4643,13 +4658,13 @@
         <v>17178</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>187</v>
+        <v>320</v>
       </c>
       <c r="H4" s="7">
         <v>24</v>
@@ -4658,13 +4673,13 @@
         <v>16730</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="M4" s="7">
         <v>48</v>
@@ -4673,13 +4688,13 @@
         <v>33908</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4694,13 +4709,13 @@
         <v>16480</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="H5" s="7">
         <v>16</v>
@@ -4709,13 +4724,13 @@
         <v>11101</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="M5" s="7">
         <v>39</v>
@@ -4724,13 +4739,13 @@
         <v>27581</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4745,13 +4760,13 @@
         <v>1426</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="H6" s="7">
         <v>4</v>
@@ -4760,13 +4775,13 @@
         <v>2775</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>267</v>
+        <v>124</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="M6" s="7">
         <v>6</v>
@@ -4775,13 +4790,13 @@
         <v>4201</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4796,13 +4811,13 @@
         <v>1554</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>147</v>
+        <v>343</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4817,7 +4832,7 @@
         <v>41</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -4826,13 +4841,13 @@
         <v>1554</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4853,7 +4868,7 @@
         <v>41</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4868,7 +4883,7 @@
         <v>41</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4883,7 +4898,7 @@
         <v>41</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4951,13 +4966,13 @@
         <v>144411</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="H10" s="7">
         <v>216</v>
@@ -4966,13 +4981,13 @@
         <v>152369</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="M10" s="7">
         <v>413</v>
@@ -4981,13 +4996,13 @@
         <v>296781</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5002,13 +5017,13 @@
         <v>78289</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="H11" s="7">
         <v>118</v>
@@ -5017,13 +5032,13 @@
         <v>81197</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="M11" s="7">
         <v>225</v>
@@ -5032,13 +5047,13 @@
         <v>159487</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5053,13 +5068,13 @@
         <v>10197</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="H12" s="7">
         <v>10</v>
@@ -5068,13 +5083,13 @@
         <v>7094</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>366</v>
+        <v>239</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>298</v>
+        <v>372</v>
       </c>
       <c r="M12" s="7">
         <v>24</v>
@@ -5083,13 +5098,13 @@
         <v>17291</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>367</v>
+        <v>277</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>340</v>
+        <v>373</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5104,13 +5119,13 @@
         <v>2095</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>237</v>
+        <v>376</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -5119,13 +5134,13 @@
         <v>2009</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -5134,13 +5149,13 @@
         <v>4104</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5155,13 +5170,13 @@
         <v>2070</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>193</v>
+        <v>385</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -5170,13 +5185,13 @@
         <v>617</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>378</v>
+        <v>198</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -5185,13 +5200,13 @@
         <v>2687</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>35</v>
+        <v>387</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5247,7 +5262,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5259,13 +5274,13 @@
         <v>53081</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="H16" s="7">
         <v>60</v>
@@ -5274,13 +5289,13 @@
         <v>43594</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="M16" s="7">
         <v>133</v>
@@ -5289,13 +5304,13 @@
         <v>96675</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5310,13 +5325,13 @@
         <v>18903</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="H17" s="7">
         <v>37</v>
@@ -5325,13 +5340,13 @@
         <v>25339</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="M17" s="7">
         <v>64</v>
@@ -5340,13 +5355,13 @@
         <v>44242</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5361,13 +5376,13 @@
         <v>2030</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -5376,13 +5391,13 @@
         <v>738</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>400</v>
+        <v>374</v>
       </c>
       <c r="M18" s="7">
         <v>4</v>
@@ -5391,13 +5406,13 @@
         <v>2768</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>401</v>
+        <v>162</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>234</v>
+        <v>408</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5412,13 +5427,13 @@
         <v>1489</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5433,7 +5448,7 @@
         <v>41</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -5442,13 +5457,13 @@
         <v>1489</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>407</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5469,7 +5484,7 @@
         <v>41</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -5478,13 +5493,13 @@
         <v>1418</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -5493,13 +5508,13 @@
         <v>1418</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5567,13 +5582,13 @@
         <v>214670</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="H22" s="7">
         <v>300</v>
@@ -5582,13 +5597,13 @@
         <v>212694</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="M22" s="7">
         <v>594</v>
@@ -5597,13 +5612,13 @@
         <v>427363</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5618,13 +5633,13 @@
         <v>113672</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="H23" s="7">
         <v>171</v>
@@ -5633,13 +5648,13 @@
         <v>117637</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="M23" s="7">
         <v>328</v>
@@ -5648,13 +5663,13 @@
         <v>231309</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5669,13 +5684,13 @@
         <v>13653</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>125</v>
+        <v>311</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="H24" s="7">
         <v>15</v>
@@ -5684,13 +5699,13 @@
         <v>10608</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="M24" s="7">
         <v>34</v>
@@ -5699,13 +5714,13 @@
         <v>24261</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>305</v>
+        <v>86</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5720,13 +5735,13 @@
         <v>5138</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>301</v>
+        <v>70</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>437</v>
+        <v>305</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -5735,13 +5750,13 @@
         <v>2009</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="M25" s="7">
         <v>10</v>
@@ -5750,13 +5765,13 @@
         <v>7146</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5771,13 +5786,13 @@
         <v>2070</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>92</v>
+        <v>450</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>366</v>
+        <v>451</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -5786,13 +5801,13 @@
         <v>2035</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="K26" s="7" t="s">
-        <v>439</v>
-      </c>
       <c r="L26" s="7" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="M26" s="7">
         <v>6</v>
@@ -5801,13 +5816,13 @@
         <v>4105</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>446</v>
+        <v>161</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>447</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5863,7 +5878,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C02-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07C02-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDCBCC1E-91D5-4788-8C15-0F40874EF45E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3E53CE6-97B4-4E1F-8C06-A6BBE133961E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3797FA34-6188-4FCD-9640-BD8B3196EA88}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{F63BF84F-8ACE-4DEE-A0AA-AC362658B1DF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="443">
   <si>
     <t>Menores según frecuencia de haber podido correr bien en 2007 (Tasa respuesta: 42,63%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -73,1330 +73,1300 @@
     <t>Muchísimo</t>
   </si>
   <si>
+    <t>54,49%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
+  </si>
+  <si>
     <t>55,47%</t>
   </si>
   <si>
-    <t>43,05%</t>
-  </si>
-  <si>
-    <t>67,58%</t>
-  </si>
-  <si>
-    <t>54,49%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>66,43%</t>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>67,1%</t>
   </si>
   <si>
     <t>54,96%</t>
   </si>
   <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>63,63%</t>
+    <t>46,17%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
   </si>
   <si>
     <t>Mucho</t>
   </si>
   <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
+  </si>
+  <si>
     <t>42,96%</t>
   </si>
   <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>55,43%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
   </si>
   <si>
     <t>40,68%</t>
   </si>
   <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>48,9%</t>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>49,11%</t>
   </si>
   <si>
     <t>Moderadamente</t>
   </si>
   <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
     <t>1,57%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
+    <t>7,94%</t>
   </si>
   <si>
     <t>2,93%</t>
   </si>
   <si>
-    <t>0,71%</t>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>Poco</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>Nada</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>59,98%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>61,93%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
+  </si>
+  <si>
+    <t>51,44%</t>
+  </si>
+  <si>
+    <t>59,34%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>59,2%</t>
+  </si>
+  <si>
+    <t>58,17%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>61,54%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>54,11%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>48,3%</t>
+  </si>
+  <si>
+    <t>57,69%</t>
+  </si>
+  <si>
+    <t>56,58%</t>
+  </si>
+  <si>
+    <t>51,76%</t>
+  </si>
+  <si>
+    <t>61,05%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>57,77%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haber podido correr bien en 2012 (Tasa respuesta: 43,69%)</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>47,15%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>60,09%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>56,49%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>69,07%</t>
+  </si>
+  <si>
+    <t>46,6%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>58,45%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>42,41%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>58,6%</t>
+  </si>
+  <si>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>49,53%</t>
+  </si>
+  <si>
+    <t>55,05%</t>
+  </si>
+  <si>
+    <t>60,95%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
   </si>
   <si>
     <t>7,24%</t>
   </si>
   <si>
-    <t>Poco</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>Nada</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>56,45%</t>
-  </si>
-  <si>
-    <t>50,33%</t>
-  </si>
-  <si>
-    <t>61,42%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>60,06%</t>
-  </si>
-  <si>
-    <t>55,46%</t>
-  </si>
-  <si>
-    <t>51,52%</t>
-  </si>
-  <si>
-    <t>59,48%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>57,2%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>63,91%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>57,52%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>55,7%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>54,78%</t>
+  </si>
+  <si>
+    <t>49,83%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>48,47%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
   </si>
   <si>
     <t>1,47%</t>
   </si>
   <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haber podido correr bien en 2016 (Tasa respuesta: 45,72%)</t>
+  </si>
+  <si>
+    <t>54,66%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>69,15%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>59,51%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>62,63%</t>
+  </si>
+  <si>
+    <t>57,17%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>60,92%</t>
+  </si>
+  <si>
+    <t>55,29%</t>
+  </si>
+  <si>
+    <t>65,86%</t>
+  </si>
+  <si>
+    <t>61,78%</t>
+  </si>
+  <si>
+    <t>58,15%</t>
+  </si>
+  <si>
+    <t>65,32%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>61,32%</t>
+  </si>
+  <si>
+    <t>51,82%</t>
+  </si>
+  <si>
+    <t>70,85%</t>
+  </si>
+  <si>
+    <t>70,3%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>65,95%</t>
+  </si>
+  <si>
+    <t>59,4%</t>
+  </si>
+  <si>
+    <t>72,17%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>61,65%</t>
+  </si>
+  <si>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>65,71%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>56,96%</t>
+  </si>
+  <si>
+    <t>65,79%</t>
+  </si>
+  <si>
+    <t>61,56%</t>
+  </si>
+  <si>
+    <t>58,73%</t>
+  </si>
+  <si>
+    <t>64,51%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
   </si>
   <si>
     <t>0,58%</t>
   </si>
   <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>68,96%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>58,8%</t>
-  </si>
-  <si>
-    <t>52,33%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>60,3%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>52,35%</t>
-  </si>
-  <si>
-    <t>43,47%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>49,5%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>56,58%</t>
-  </si>
-  <si>
-    <t>52,41%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
-  </si>
-  <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>57,45%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haber podido correr bien en 2012 (Tasa respuesta: 43,69%)</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>60,43%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>46,02%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>46,6%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>58,93%</t>
-  </si>
-  <si>
-    <t>56,49%</t>
-  </si>
-  <si>
-    <t>43,73%</t>
-  </si>
-  <si>
-    <t>67,47%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>60,36%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>53,37%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>59,12%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>42,48%</t>
-  </si>
-  <si>
-    <t>45,49%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>49,24%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
-  </si>
-  <si>
-    <t>49,05%</t>
-  </si>
-  <si>
-    <t>60,38%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>51,65%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>56,24%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>50,01%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>56,89%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>63,61%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>41,93%</t>
-  </si>
-  <si>
-    <t>56,33%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>51,23%</t>
-  </si>
-  <si>
-    <t>46,53%</t>
-  </si>
-  <si>
-    <t>55,57%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>54,78%</t>
-  </si>
-  <si>
-    <t>49,8%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>48,47%</t>
-  </si>
-  <si>
-    <t>45,25%</t>
-  </si>
-  <si>
-    <t>51,96%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haber podido correr bien en 2016 (Tasa respuesta: 45,72%)</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>61,71%</t>
-  </si>
-  <si>
-    <t>54,66%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>60,39%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>60,92%</t>
-  </si>
-  <si>
-    <t>55,64%</t>
-  </si>
-  <si>
-    <t>66,21%</t>
-  </si>
-  <si>
-    <t>62,63%</t>
-  </si>
-  <si>
-    <t>57,4%</t>
-  </si>
-  <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>61,78%</t>
-  </si>
-  <si>
-    <t>58,28%</t>
-  </si>
-  <si>
-    <t>65,75%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>70,3%</t>
-  </si>
-  <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>78,63%</t>
-  </si>
-  <si>
-    <t>61,32%</t>
-  </si>
-  <si>
-    <t>51,4%</t>
-  </si>
-  <si>
-    <t>71,02%</t>
-  </si>
-  <si>
-    <t>65,95%</t>
-  </si>
-  <si>
-    <t>59,46%</t>
-  </si>
-  <si>
-    <t>72,6%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>56,76%</t>
-  </si>
-  <si>
-    <t>65,82%</t>
-  </si>
-  <si>
-    <t>61,65%</t>
-  </si>
-  <si>
-    <t>56,92%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
-  </si>
-  <si>
-    <t>61,56%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
-  </si>
-  <si>
-    <t>64,33%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
     <t>0,18%</t>
   </si>
   <si>
-    <t>1,51%</t>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
   </si>
   <si>
     <t>1,03%</t>
   </si>
   <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
   </si>
 </sst>
 </file>
@@ -1808,7 +1778,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7500857-7615-41CE-BD27-462BA753AEA1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67DFA4C6-40E4-48F5-BA3A-398165F05861}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1929,7 +1899,7 @@
         <v>37</v>
       </c>
       <c r="D4" s="7">
-        <v>23976</v>
+        <v>25072</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1944,7 +1914,7 @@
         <v>37</v>
       </c>
       <c r="I4" s="7">
-        <v>25072</v>
+        <v>23976</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1980,7 +1950,7 @@
         <v>27</v>
       </c>
       <c r="D5" s="7">
-        <v>18568</v>
+        <v>17736</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1995,7 +1965,7 @@
         <v>27</v>
       </c>
       <c r="I5" s="7">
-        <v>17736</v>
+        <v>18568</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -2028,10 +1998,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6" s="7">
-        <v>680</v>
+        <v>1932</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -2043,10 +2013,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>1932</v>
+        <v>680</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -2079,31 +2049,31 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>1274</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>42</v>
       </c>
       <c r="H7" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>1274</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>44</v>
@@ -2118,7 +2088,7 @@
         <v>45</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>46</v>
@@ -2136,13 +2106,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2151,13 +2121,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2166,10 +2136,10 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>49</v>
@@ -2181,25 +2151,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>69</v>
+      </c>
+      <c r="D9" s="7">
+        <v>46014</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="7">
         <v>65</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>43224</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" s="7">
-        <v>69</v>
-      </c>
-      <c r="I9" s="7">
-        <v>46014</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>50</v>
@@ -2234,10 +2204,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>186</v>
+        <v>155</v>
       </c>
       <c r="D10" s="7">
-        <v>122392</v>
+        <v>103437</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>52</v>
@@ -2249,19 +2219,19 @@
         <v>54</v>
       </c>
       <c r="H10" s="7">
-        <v>155</v>
+        <v>186</v>
       </c>
       <c r="I10" s="7">
-        <v>103437</v>
+        <v>122392</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>55</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M10" s="7">
         <v>341</v>
@@ -2270,13 +2240,13 @@
         <v>225829</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2285,34 +2255,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>116</v>
+      </c>
+      <c r="D11" s="7">
+        <v>77589</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="7">
         <v>123</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>82648</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H11" s="7">
-        <v>116</v>
-      </c>
-      <c r="I11" s="7">
-        <v>77589</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M11" s="7">
         <v>239</v>
@@ -2321,13 +2291,13 @@
         <v>160236</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2336,34 +2306,34 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
+        <v>10</v>
+      </c>
+      <c r="D12" s="7">
+        <v>6733</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" s="7">
         <v>9</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>5895</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="H12" s="7">
-        <v>10</v>
-      </c>
-      <c r="I12" s="7">
-        <v>6733</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>19</v>
@@ -2372,13 +2342,13 @@
         <v>12627</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2387,34 +2357,34 @@
         <v>40</v>
       </c>
       <c r="C13" s="7">
+        <v>4</v>
+      </c>
+      <c r="D13" s="7">
+        <v>2627</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" s="7">
         <v>5</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>3315</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H13" s="7">
-        <v>4</v>
-      </c>
-      <c r="I13" s="7">
-        <v>2627</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -2423,13 +2393,13 @@
         <v>5942</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2438,34 +2408,34 @@
         <v>47</v>
       </c>
       <c r="C14" s="7">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H14" s="7">
         <v>4</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>2582</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="K14" s="7" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -2474,13 +2444,13 @@
         <v>2582</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2489,25 +2459,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>285</v>
+      </c>
+      <c r="D15" s="7">
+        <v>190386</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" s="7">
         <v>327</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>216831</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H15" s="7">
-        <v>285</v>
-      </c>
-      <c r="I15" s="7">
-        <v>190386</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>50</v>
@@ -2536,40 +2506,40 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>37</v>
+      </c>
+      <c r="D16" s="7">
+        <v>25521</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H16" s="7">
         <v>43</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>28527</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="H16" s="7">
-        <v>37</v>
-      </c>
-      <c r="I16" s="7">
-        <v>25521</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M16" s="7">
         <v>80</v>
@@ -2578,13 +2548,13 @@
         <v>54048</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2593,34 +2563,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>34</v>
+      </c>
+      <c r="D17" s="7">
+        <v>23581</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H17" s="7">
         <v>28</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>19192</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="H17" s="7">
-        <v>34</v>
-      </c>
-      <c r="I17" s="7">
-        <v>23581</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M17" s="7">
         <v>62</v>
@@ -2629,13 +2599,13 @@
         <v>42774</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2644,34 +2614,34 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>6</v>
+      </c>
+      <c r="D18" s="7">
+        <v>4418</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H18" s="7">
         <v>2</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>1321</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="H18" s="7">
-        <v>6</v>
-      </c>
-      <c r="I18" s="7">
-        <v>4418</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>115</v>
+        <v>35</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M18" s="7">
         <v>8</v>
@@ -2680,10 +2650,10 @@
         <v>5739</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>119</v>
@@ -2695,31 +2665,31 @@
         <v>40</v>
       </c>
       <c r="C19" s="7">
+        <v>1</v>
+      </c>
+      <c r="D19" s="7">
+        <v>726</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H19" s="7">
         <v>0</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>0</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1</v>
-      </c>
-      <c r="I19" s="7">
-        <v>726</v>
-      </c>
       <c r="J19" s="7" t="s">
-        <v>121</v>
+        <v>35</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>122</v>
@@ -2734,10 +2704,10 @@
         <v>123</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2752,13 +2722,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2767,13 +2737,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2782,13 +2752,13 @@
         <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2797,25 +2767,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>78</v>
+      </c>
+      <c r="D21" s="7">
+        <v>54246</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H21" s="7">
         <v>73</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>49040</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H21" s="7">
-        <v>78</v>
-      </c>
-      <c r="I21" s="7">
-        <v>54246</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>50</v>
@@ -2850,34 +2820,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>229</v>
+      </c>
+      <c r="D22" s="7">
+        <v>154030</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H22" s="7">
         <v>266</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>174895</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="H22" s="7">
-        <v>229</v>
-      </c>
-      <c r="I22" s="7">
-        <v>154030</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>495</v>
@@ -2886,13 +2856,13 @@
         <v>328925</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2901,34 +2871,34 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
+        <v>177</v>
+      </c>
+      <c r="D23" s="7">
+        <v>118906</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H23" s="7">
         <v>178</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>120408</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="H23" s="7">
-        <v>177</v>
-      </c>
-      <c r="I23" s="7">
-        <v>118906</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>355</v>
@@ -2937,13 +2907,13 @@
         <v>239314</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2952,34 +2922,34 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
+        <v>19</v>
+      </c>
+      <c r="D24" s="7">
+        <v>13083</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H24" s="7">
         <v>12</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>7895</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="H24" s="7">
-        <v>19</v>
-      </c>
-      <c r="I24" s="7">
-        <v>13083</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>112</v>
+        <v>149</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M24" s="7">
         <v>31</v>
@@ -2988,13 +2958,13 @@
         <v>20978</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3003,34 +2973,34 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
+        <v>7</v>
+      </c>
+      <c r="D25" s="7">
+        <v>4627</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H25" s="7">
         <v>5</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>3315</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="H25" s="7">
-        <v>7</v>
-      </c>
-      <c r="I25" s="7">
-        <v>4627</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M25" s="7">
         <v>12</v>
@@ -3039,13 +3009,13 @@
         <v>7942</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3054,34 +3024,34 @@
         <v>47</v>
       </c>
       <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="H26" s="7">
         <v>4</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>2582</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G26" s="7" t="s">
+      <c r="J26" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7">
-        <v>0</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="K26" s="7" t="s">
-        <v>41</v>
+        <v>163</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
@@ -3090,13 +3060,13 @@
         <v>2582</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3105,25 +3075,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>432</v>
+      </c>
+      <c r="D27" s="7">
+        <v>290646</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H27" s="7">
         <v>465</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>309095</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H27" s="7">
-        <v>432</v>
-      </c>
-      <c r="I27" s="7">
-        <v>290646</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>50</v>
@@ -3152,7 +3122,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -3171,7 +3141,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE9DD97B-D5DC-499C-98D0-DDFA4F87D029}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE6BEAC-A237-405A-B1B6-3CC9F8BE0442}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3188,7 +3158,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3289,31 +3259,31 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>25</v>
+      </c>
+      <c r="D4" s="7">
+        <v>17664</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H4" s="7">
         <v>31</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>21455</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="J4" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="H4" s="7">
-        <v>25</v>
-      </c>
-      <c r="I4" s="7">
-        <v>17664</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>174</v>
@@ -3340,10 +3310,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="D5" s="7">
-        <v>21046</v>
+        <v>29161</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>178</v>
@@ -3355,10 +3325,10 @@
         <v>180</v>
       </c>
       <c r="H5" s="7">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="I5" s="7">
-        <v>29161</v>
+        <v>21046</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>181</v>
@@ -3391,31 +3361,31 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
+        <v>5</v>
+      </c>
+      <c r="D6" s="7">
+        <v>4145</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H6" s="7">
         <v>2</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>1231</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="H6" s="7">
-        <v>5</v>
-      </c>
-      <c r="I6" s="7">
-        <v>4145</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>188</v>
+        <v>73</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>189</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>190</v>
@@ -3442,34 +3412,34 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H7" s="7">
         <v>1</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>607</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="J7" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -3478,10 +3448,10 @@
         <v>607</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>195</v>
@@ -3496,13 +3466,13 @@
         <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>823</v>
+        <v>656</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>196</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>197</v>
@@ -3511,13 +3481,13 @@
         <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>656</v>
+        <v>823</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>198</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>199</v>
@@ -3529,10 +3499,10 @@
         <v>1479</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>200</v>
@@ -3544,25 +3514,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>73</v>
+      </c>
+      <c r="D9" s="7">
+        <v>51626</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="7">
         <v>64</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>45162</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" s="7">
-        <v>73</v>
-      </c>
-      <c r="I9" s="7">
-        <v>51626</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>50</v>
@@ -3597,10 +3567,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>175</v>
+        <v>105</v>
       </c>
       <c r="D10" s="7">
-        <v>120314</v>
+        <v>72804</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>201</v>
@@ -3612,10 +3582,10 @@
         <v>203</v>
       </c>
       <c r="H10" s="7">
-        <v>105</v>
+        <v>175</v>
       </c>
       <c r="I10" s="7">
-        <v>72804</v>
+        <v>120314</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>204</v>
@@ -3648,25 +3618,25 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="D11" s="7">
-        <v>92148</v>
+        <v>109568</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>210</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>170</v>
+        <v>53</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>211</v>
       </c>
       <c r="H11" s="7">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="I11" s="7">
-        <v>109568</v>
+        <v>92148</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>212</v>
@@ -3690,7 +3660,7 @@
         <v>216</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>217</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3699,34 +3669,34 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
+        <v>20</v>
+      </c>
+      <c r="D12" s="7">
+        <v>14318</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="H12" s="7">
         <v>13</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>8346</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="F12" s="7" t="s">
+      <c r="J12" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="H12" s="7">
-        <v>20</v>
-      </c>
-      <c r="I12" s="7">
-        <v>14318</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M12" s="7">
         <v>33</v>
@@ -3735,13 +3705,13 @@
         <v>22664</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3750,34 +3720,34 @@
         <v>40</v>
       </c>
       <c r="C13" s="7">
+        <v>3</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1926</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H13" s="7">
         <v>4</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>2697</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="J13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="H13" s="7">
-        <v>3</v>
-      </c>
-      <c r="I13" s="7">
-        <v>1926</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -3786,13 +3756,13 @@
         <v>4623</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>231</v>
+        <v>167</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3801,34 +3771,34 @@
         <v>47</v>
       </c>
       <c r="C14" s="7">
+        <v>1</v>
+      </c>
+      <c r="D14" s="7">
+        <v>430</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="H14" s="7">
         <v>3</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>1947</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7">
-        <v>430</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>161</v>
+        <v>230</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>32</v>
+        <v>231</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>236</v>
+        <v>160</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -3837,13 +3807,13 @@
         <v>2377</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3852,25 +3822,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>285</v>
+      </c>
+      <c r="D15" s="7">
+        <v>199047</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" s="7">
         <v>329</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>225452</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H15" s="7">
-        <v>285</v>
-      </c>
-      <c r="I15" s="7">
-        <v>199046</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>50</v>
@@ -3899,40 +3869,40 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>34</v>
+      </c>
+      <c r="D16" s="7">
+        <v>23722</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="H16" s="7">
         <v>39</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>25643</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="J16" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="H16" s="7">
-        <v>34</v>
-      </c>
-      <c r="I16" s="7">
-        <v>23722</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="M16" s="7">
         <v>73</v>
@@ -3941,13 +3911,13 @@
         <v>49365</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3956,34 +3926,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>43</v>
+      </c>
+      <c r="D17" s="7">
+        <v>31537</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="H17" s="7">
         <v>36</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>25541</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="H17" s="7">
-        <v>43</v>
-      </c>
-      <c r="I17" s="7">
-        <v>31537</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>251</v>
-      </c>
       <c r="K17" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="M17" s="7">
         <v>79</v>
@@ -3992,13 +3962,13 @@
         <v>57078</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4010,31 +3980,31 @@
         <v>4</v>
       </c>
       <c r="D18" s="7">
-        <v>2740</v>
+        <v>2957</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>258</v>
+        <v>149</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="H18" s="7">
         <v>4</v>
       </c>
       <c r="I18" s="7">
-        <v>2957</v>
+        <v>2740</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>261</v>
+        <v>149</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="M18" s="7">
         <v>8</v>
@@ -4043,13 +4013,13 @@
         <v>5697</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>264</v>
+        <v>157</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4061,31 +4031,31 @@
         <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>1506</v>
+        <v>1316</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
       </c>
       <c r="I19" s="7">
-        <v>1316</v>
+        <v>1506</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -4094,13 +4064,13 @@
         <v>2821</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4112,31 +4082,31 @@
         <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>722</v>
+        <v>594</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>594</v>
+        <v>722</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -4145,13 +4115,13 @@
         <v>1316</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4160,25 +4130,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>84</v>
+      </c>
+      <c r="D21" s="7">
+        <v>60126</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H21" s="7">
         <v>82</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>56152</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H21" s="7">
-        <v>84</v>
-      </c>
-      <c r="I21" s="7">
-        <v>60126</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>50</v>
@@ -4213,34 +4183,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>164</v>
+      </c>
+      <c r="D22" s="7">
+        <v>114190</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="H22" s="7">
         <v>245</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>167413</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="H22" s="7">
-        <v>164</v>
-      </c>
-      <c r="I22" s="7">
-        <v>114190</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="M22" s="7">
         <v>409</v>
@@ -4249,13 +4219,13 @@
         <v>281602</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4264,34 +4234,34 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
+        <v>241</v>
+      </c>
+      <c r="D23" s="7">
+        <v>170266</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="H23" s="7">
         <v>199</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>138735</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="H23" s="7">
-        <v>241</v>
-      </c>
-      <c r="I23" s="7">
-        <v>170266</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="M23" s="7">
         <v>440</v>
@@ -4300,13 +4270,13 @@
         <v>309001</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4315,34 +4285,34 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
+        <v>29</v>
+      </c>
+      <c r="D24" s="7">
+        <v>21420</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H24" s="7">
         <v>19</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>12316</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="H24" s="7">
-        <v>29</v>
-      </c>
-      <c r="I24" s="7">
-        <v>21420</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="M24" s="7">
         <v>48</v>
@@ -4351,13 +4321,13 @@
         <v>33736</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4366,34 +4336,34 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
+        <v>5</v>
+      </c>
+      <c r="D25" s="7">
+        <v>3241</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="H25" s="7">
         <v>7</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>4810</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="H25" s="7">
-        <v>5</v>
-      </c>
-      <c r="I25" s="7">
-        <v>3241</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="M25" s="7">
         <v>12</v>
@@ -4402,13 +4372,13 @@
         <v>8051</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>310</v>
+        <v>258</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4417,34 +4387,34 @@
         <v>47</v>
       </c>
       <c r="C26" s="7">
+        <v>3</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1680</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="H26" s="7">
         <v>5</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>3492</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="H26" s="7">
-        <v>3</v>
-      </c>
-      <c r="I26" s="7">
-        <v>1680</v>
-      </c>
       <c r="J26" s="7" t="s">
-        <v>312</v>
+        <v>155</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>313</v>
+        <v>156</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>84</v>
+        <v>157</v>
       </c>
       <c r="M26" s="7">
         <v>8</v>
@@ -4453,13 +4423,13 @@
         <v>5172</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4468,25 +4438,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>442</v>
+      </c>
+      <c r="D27" s="7">
+        <v>310798</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H27" s="7">
         <v>475</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>326766</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H27" s="7">
-        <v>442</v>
-      </c>
-      <c r="I27" s="7">
-        <v>310798</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>50</v>
@@ -4515,7 +4485,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -4534,7 +4504,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9CCB1B6-6640-47A0-9D29-9BECEE13C0FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DC5497B-2FC5-4421-843E-FC98CEA25E1E}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4551,7 +4521,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4655,31 +4625,31 @@
         <v>24</v>
       </c>
       <c r="D4" s="7">
-        <v>17178</v>
+        <v>16730</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="H4" s="7">
         <v>24</v>
       </c>
       <c r="I4" s="7">
-        <v>16730</v>
+        <v>17178</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>321</v>
+        <v>284</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="M4" s="7">
         <v>48</v>
@@ -4688,13 +4658,13 @@
         <v>33908</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4703,34 +4673,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>16</v>
+      </c>
+      <c r="D5" s="7">
+        <v>11101</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="H5" s="7">
         <v>23</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>16480</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="H5" s="7">
-        <v>16</v>
-      </c>
-      <c r="I5" s="7">
-        <v>11101</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="M5" s="7">
         <v>39</v>
@@ -4739,13 +4709,13 @@
         <v>27581</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4754,34 +4724,34 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
+        <v>4</v>
+      </c>
+      <c r="D6" s="7">
+        <v>2775</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="H6" s="7">
         <v>2</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>1426</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="H6" s="7">
-        <v>4</v>
-      </c>
-      <c r="I6" s="7">
-        <v>2775</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>124</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="M6" s="7">
         <v>6</v>
@@ -4790,13 +4760,13 @@
         <v>4201</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4805,34 +4775,34 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="H7" s="7">
         <v>2</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>1554</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>32</v>
+        <v>332</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -4841,13 +4811,13 @@
         <v>1554</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4862,13 +4832,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4877,13 +4847,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4892,13 +4862,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4907,25 +4877,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>44</v>
+      </c>
+      <c r="D9" s="7">
+        <v>30606</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="7">
         <v>51</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>36638</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" s="7">
-        <v>44</v>
-      </c>
-      <c r="I9" s="7">
-        <v>30606</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>50</v>
@@ -4960,34 +4930,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>216</v>
+      </c>
+      <c r="D10" s="7">
+        <v>152369</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="H10" s="7">
         <v>197</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>144411</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="H10" s="7">
-        <v>216</v>
-      </c>
-      <c r="I10" s="7">
-        <v>152369</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="M10" s="7">
         <v>413</v>
@@ -4996,13 +4966,13 @@
         <v>296781</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5011,34 +4981,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>118</v>
+      </c>
+      <c r="D11" s="7">
+        <v>81197</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="H11" s="7">
         <v>107</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>78289</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="H11" s="7">
-        <v>118</v>
-      </c>
-      <c r="I11" s="7">
-        <v>81197</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="M11" s="7">
         <v>225</v>
@@ -5047,13 +5017,13 @@
         <v>159487</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5062,34 +5032,34 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
+        <v>10</v>
+      </c>
+      <c r="D12" s="7">
+        <v>7094</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="H12" s="7">
         <v>14</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>10197</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="H12" s="7">
-        <v>10</v>
-      </c>
-      <c r="I12" s="7">
-        <v>7094</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>239</v>
+        <v>359</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="M12" s="7">
         <v>24</v>
@@ -5098,13 +5068,13 @@
         <v>17291</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>277</v>
+        <v>361</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5116,31 +5086,31 @@
         <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>2095</v>
+        <v>2009</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
       </c>
       <c r="I13" s="7">
-        <v>2009</v>
+        <v>2095</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>379</v>
+        <v>231</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -5149,13 +5119,13 @@
         <v>4104</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>382</v>
+        <v>89</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>383</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5164,34 +5134,34 @@
         <v>47</v>
       </c>
       <c r="C14" s="7">
+        <v>1</v>
+      </c>
+      <c r="D14" s="7">
+        <v>617</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="H14" s="7">
         <v>3</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>2070</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7">
-        <v>617</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>32</v>
+        <v>226</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>198</v>
+        <v>359</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -5200,13 +5170,13 @@
         <v>2687</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5215,25 +5185,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>348</v>
+      </c>
+      <c r="D15" s="7">
+        <v>243287</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" s="7">
         <v>324</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>237063</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H15" s="7">
-        <v>348</v>
-      </c>
-      <c r="I15" s="7">
-        <v>243287</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>50</v>
@@ -5262,40 +5232,40 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>60</v>
+      </c>
+      <c r="D16" s="7">
+        <v>43594</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="H16" s="7">
         <v>73</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>53081</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="H16" s="7">
-        <v>60</v>
-      </c>
-      <c r="I16" s="7">
-        <v>43594</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="M16" s="7">
         <v>133</v>
@@ -5304,13 +5274,13 @@
         <v>96675</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5319,34 +5289,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>37</v>
+      </c>
+      <c r="D17" s="7">
+        <v>25339</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="H17" s="7">
         <v>27</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>18903</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="H17" s="7">
-        <v>37</v>
-      </c>
-      <c r="I17" s="7">
-        <v>25339</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="M17" s="7">
         <v>64</v>
@@ -5355,13 +5325,13 @@
         <v>44242</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5370,34 +5340,34 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>1</v>
+      </c>
+      <c r="D18" s="7">
+        <v>738</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="H18" s="7">
         <v>3</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>2030</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1</v>
-      </c>
-      <c r="I18" s="7">
-        <v>738</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>307</v>
+        <v>116</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>32</v>
+        <v>393</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>374</v>
+        <v>394</v>
       </c>
       <c r="M18" s="7">
         <v>4</v>
@@ -5406,13 +5376,13 @@
         <v>2768</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>162</v>
+        <v>395</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5421,34 +5391,34 @@
         <v>40</v>
       </c>
       <c r="C19" s="7">
+        <v>0</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="H19" s="7">
         <v>2</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>1489</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
       <c r="J19" s="7" t="s">
-        <v>32</v>
+        <v>399</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -5457,13 +5427,13 @@
         <v>1489</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>75</v>
+        <v>289</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5472,34 +5442,34 @@
         <v>47</v>
       </c>
       <c r="C20" s="7">
+        <v>2</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1418</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="H20" s="7">
         <v>0</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>0</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1418</v>
-      </c>
       <c r="J20" s="7" t="s">
-        <v>415</v>
+        <v>35</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -5508,13 +5478,13 @@
         <v>1418</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5523,25 +5493,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>100</v>
+      </c>
+      <c r="D21" s="7">
+        <v>71090</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H21" s="7">
         <v>105</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>75502</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H21" s="7">
-        <v>100</v>
-      </c>
-      <c r="I21" s="7">
-        <v>71090</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>50</v>
@@ -5576,34 +5546,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>300</v>
+      </c>
+      <c r="D22" s="7">
+        <v>212694</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="H22" s="7">
         <v>294</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>214670</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="H22" s="7">
-        <v>300</v>
-      </c>
-      <c r="I22" s="7">
-        <v>212694</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="M22" s="7">
         <v>594</v>
@@ -5612,13 +5582,13 @@
         <v>427363</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5627,34 +5597,34 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
+        <v>171</v>
+      </c>
+      <c r="D23" s="7">
+        <v>117637</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="H23" s="7">
         <v>157</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>113672</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="H23" s="7">
-        <v>171</v>
-      </c>
-      <c r="I23" s="7">
-        <v>117637</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="M23" s="7">
         <v>328</v>
@@ -5663,13 +5633,13 @@
         <v>231309</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5678,34 +5648,34 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
+        <v>15</v>
+      </c>
+      <c r="D24" s="7">
+        <v>10608</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="H24" s="7">
         <v>19</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>13653</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="H24" s="7">
-        <v>15</v>
-      </c>
-      <c r="I24" s="7">
-        <v>10608</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="M24" s="7">
         <v>34</v>
@@ -5714,13 +5684,13 @@
         <v>24261</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>86</v>
+        <v>431</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5729,34 +5699,34 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
+        <v>3</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2009</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="H25" s="7">
         <v>7</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>5138</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="H25" s="7">
-        <v>3</v>
-      </c>
-      <c r="I25" s="7">
-        <v>2009</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>79</v>
+        <v>297</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="M25" s="7">
         <v>10</v>
@@ -5765,13 +5735,13 @@
         <v>7146</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5783,31 +5753,31 @@
         <v>3</v>
       </c>
       <c r="D26" s="7">
-        <v>2070</v>
+        <v>2035</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>449</v>
+        <v>83</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
       </c>
       <c r="I26" s="7">
-        <v>2035</v>
+        <v>2070</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>449</v>
+        <v>83</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>444</v>
+        <v>92</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>452</v>
+        <v>93</v>
       </c>
       <c r="M26" s="7">
         <v>6</v>
@@ -5816,13 +5786,13 @@
         <v>4105</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>449</v>
+        <v>83</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>161</v>
+        <v>442</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>261</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5831,25 +5801,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>492</v>
+      </c>
+      <c r="D27" s="7">
+        <v>344983</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H27" s="7">
         <v>480</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>349203</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H27" s="7">
-        <v>492</v>
-      </c>
-      <c r="I27" s="7">
-        <v>344983</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>50</v>
@@ -5878,7 +5848,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
